--- a/scene_cat_exp_2023.2.2_english/input_files/98_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/98_scenecat_block_order.xlsx
@@ -360,17 +360,17 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>kitchens_1</t>
+          <t>living_rooms_1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>kitchens_2</t>
+          <t>living_rooms_2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>living_rooms_1</t>
+          <t>kitchens_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -380,12 +380,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>living_rooms_2</t>
+          <t>bedrooms_2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>bedrooms_2</t>
+          <t>kitchens_2</t>
         </is>
       </c>
     </row>
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -411,13 +411,13 @@
     </row>
     <row r="3">
       <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -474,19 +474,19 @@
         <v>0</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -494,10 +494,10 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
